--- a/main/static/records/yobhel_upload(09.12.18).xlsx
+++ b/main/static/records/yobhel_upload(09.12.18).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="230">
   <si>
     <t xml:space="preserve">RFID NUMBER</t>
   </si>
@@ -75,6 +75,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11</t>
     </r>
@@ -84,6 +85,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -92,11 +94,15 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Grade</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">18-0114</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007072460</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t xml:space="preserve">09308707421</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0049</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007072438</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">09072457856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-0230</t>
   </si>
   <si>
     <t xml:space="preserve">0007091347</t>
@@ -193,6 +205,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">17-0039</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007091362</t>
   </si>
   <si>
@@ -214,6 +229,9 @@
     <t xml:space="preserve">09270257907</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0075</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007091303</t>
   </si>
   <si>
@@ -235,6 +253,9 @@
     <t xml:space="preserve">09092466724</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0023</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007091296</t>
   </si>
   <si>
@@ -256,6 +277,9 @@
     <t xml:space="preserve">09500302294</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0037</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007104220</t>
   </si>
   <si>
@@ -280,6 +304,9 @@
     <t xml:space="preserve">HUMANITIES AND SOCIAL SCIENCES (HUMSS)</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0085</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007104254</t>
   </si>
   <si>
@@ -304,6 +331,9 @@
     <t xml:space="preserve">ACCOUNTING, BUSINESS AND MANAGEMENT (ABM)</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0098</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007104243</t>
   </si>
   <si>
@@ -328,6 +358,9 @@
     <t xml:space="preserve">SCIENCE, TECHNOLOGY, ENGINEERING AND MATHEMATICS (STEM)</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0087</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007104231</t>
   </si>
   <si>
@@ -349,6 +382,9 @@
     <t xml:space="preserve">09481873984</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0059</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007104135</t>
   </si>
   <si>
@@ -370,6 +406,9 @@
     <t xml:space="preserve">09306123841</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0021</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076271</t>
   </si>
   <si>
@@ -391,6 +430,9 @@
     <t xml:space="preserve">09294342997</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0055</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007104276</t>
   </si>
   <si>
@@ -409,6 +451,9 @@
     <t xml:space="preserve">09169036003</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0056</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007104169</t>
   </si>
   <si>
@@ -427,6 +472,9 @@
     <t xml:space="preserve">09072717393</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076262</t>
   </si>
   <si>
@@ -448,6 +496,9 @@
     <t xml:space="preserve">09127992343</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0193</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076284</t>
   </si>
   <si>
@@ -467,6 +518,9 @@
   </si>
   <si>
     <t xml:space="preserve">09284810834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-0167</t>
   </si>
   <si>
     <t xml:space="preserve">0007076293</t>
@@ -498,6 +552,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10</t>
     </r>
@@ -507,6 +562,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th </t>
     </r>
@@ -515,11 +571,15 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Grade</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">18-0179</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076205</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
     <t xml:space="preserve">09283537188</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0028</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076249</t>
   </si>
   <si>
@@ -559,6 +622,9 @@
     <t xml:space="preserve">09210999808</t>
   </si>
   <si>
+    <t xml:space="preserve">17- 0080</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076240</t>
   </si>
   <si>
@@ -580,6 +646,9 @@
     <t xml:space="preserve">09325011599</t>
   </si>
   <si>
+    <t xml:space="preserve">18-0207</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076227</t>
   </si>
   <si>
@@ -598,6 +667,9 @@
     <t xml:space="preserve">09125450642</t>
   </si>
   <si>
+    <t xml:space="preserve">16-0182</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007076218</t>
   </si>
   <si>
@@ -619,6 +691,9 @@
     <t xml:space="preserve">09988612968</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0048</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007091107</t>
   </si>
   <si>
@@ -643,6 +718,9 @@
     <t xml:space="preserve">Preparatory</t>
   </si>
   <si>
+    <t xml:space="preserve">17-0038</t>
+  </si>
+  <si>
     <t xml:space="preserve">0007091114</t>
   </si>
   <si>
@@ -662,6 +740,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-0033</t>
   </si>
   <si>
     <t xml:space="preserve">0007091129</t>
@@ -711,6 +792,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -720,6 +802,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">st</t>
     </r>
@@ -728,9 +811,13 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Grade</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">16-0014</t>
   </si>
 </sst>
 </file>
@@ -741,11 +828,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -787,24 +875,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -866,7 +942,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -895,15 +971,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -919,7 +991,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -935,20 +1007,32 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -968,6 +1052,16 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1038,23 +1132,23 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.7551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="26.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="69.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="68.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,29 +1206,31 @@
       <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>15</v>
@@ -1142,29 +1238,31 @@
       <c r="I3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>15</v>
@@ -1172,728 +1270,791 @@
       <c r="I4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="0"/>
-    </row>
-    <row r="5" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="0"/>
-    </row>
-    <row r="6" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="0"/>
-    </row>
-    <row r="7" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="0"/>
-    </row>
-    <row r="8" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="0"/>
-    </row>
-    <row r="9" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="0"/>
-    </row>
-    <row r="10" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="0"/>
-    </row>
-    <row r="11" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="0"/>
-    </row>
-    <row r="12" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="0"/>
-    </row>
-    <row r="13" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="0"/>
-    </row>
-    <row r="14" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="0"/>
-    </row>
-    <row r="15" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="0"/>
-    </row>
-    <row r="16" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="0"/>
-    </row>
-    <row r="17" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>76</v>
+        <v>139</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="0"/>
-    </row>
-    <row r="18" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>76</v>
+        <v>147</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="0"/>
+      <c r="J18" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="19" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="0"/>
-    </row>
-    <row r="20" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="0"/>
-    </row>
-    <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>159</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="0"/>
-    </row>
-    <row r="22" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="F26" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="0"/>
-    </row>
-    <row r="23" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J23" s="0"/>
-    </row>
-    <row r="24" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="J24" s="0"/>
-    </row>
-    <row r="25" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="0"/>
-    </row>
-    <row r="26" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" s="0"/>
-    </row>
-    <row r="27" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>195</v>
+        <v>214</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" s="0"/>
+        <v>212</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>202</v>
+        <v>221</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>203</v>
+        <v>228</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="containsText" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="17-" dxfId="0"/>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/main/static/records/yobhel_upload(09.12.18).xlsx
+++ b/main/static/records/yobhel_upload(09.12.18).xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">09461625177</t>
   </si>
   <si>
-    <t xml:space="preserve">GENERAL ACADEMIC STRAND (GAS)</t>
+    <t xml:space="preserve">GAS</t>
   </si>
   <si>
     <r>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">09274236484</t>
   </si>
   <si>
-    <t xml:space="preserve">TVL - WELDING (GMAW)</t>
+    <t xml:space="preserve">Welding</t>
   </si>
   <si>
     <r>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">09485936041</t>
   </si>
   <si>
-    <t xml:space="preserve">HUMANITIES AND SOCIAL SCIENCES (HUMSS)</t>
+    <t xml:space="preserve">HUMSS</t>
   </si>
   <si>
     <t xml:space="preserve">17-0085</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">09989680309</t>
   </si>
   <si>
-    <t xml:space="preserve">ACCOUNTING, BUSINESS AND MANAGEMENT (ABM)</t>
+    <t xml:space="preserve">ABM</t>
   </si>
   <si>
     <t xml:space="preserve">17-0098</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">09182111585</t>
   </si>
   <si>
-    <t xml:space="preserve">SCIENCE, TECHNOLOGY, ENGINEERING AND MATHEMATICS (STEM)</t>
+    <t xml:space="preserve">STEM</t>
   </si>
   <si>
     <t xml:space="preserve">17-0087</t>
@@ -1133,22 +1133,21 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J28" activeCellId="0" sqref="J28"/>
+      <selection pane="topRight" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="68.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="35.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="68.1683673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,7 +1551,7 @@
       <c r="G13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="8" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="0" t="s">
@@ -1584,7 +1583,7 @@
       <c r="G14" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I14" s="0" t="s">
@@ -1616,7 +1615,7 @@
       <c r="G15" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I15" s="0" t="s">
@@ -1648,7 +1647,7 @@
       <c r="G16" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I16" s="0" t="s">
